--- a/index.xlsx
+++ b/index.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AAF180-72AA-4403-94FC-CC9E0231A38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{417DC942-C02F-4823-832E-15C12FC499A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="56">
   <si>
     <t>رقم القطعة</t>
   </si>
@@ -201,10 +201,7 @@
     <t>صحون</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/ico.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/(1).jpeg</t>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (1).jpeg</t>
   </si>
 </sst>
 </file>
@@ -551,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1188F317-077E-4553-9FE5-BE4349E58890}">
   <dimension ref="A1:E222"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.8984375" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -592,7 +589,7 @@
         <v>1400</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>53</v>
@@ -2460,7 +2457,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{5B80A76D-9EEA-4887-8F2E-98156BA68207}"/>
-    <hyperlink ref="D3:D51" r:id="rId2" display="https://raw.githubusercontent.com/dofreelancer19/showitems/main/ico.png" xr:uid="{AE2E1B71-624F-4368-B453-B54C78E87FBC}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{FF21874E-6DB2-425C-8F21-6BAA0A3B9F58}"/>
+    <hyperlink ref="D4:D51" r:id="rId3" display="https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (1).jpeg" xr:uid="{F93ED466-BCFC-4FDD-935A-D5FB2830D96B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{417DC942-C02F-4823-832E-15C12FC499A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC4DCB6-E3B2-4A0C-AC65-B9E38BC7A5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="106">
   <si>
     <t>رقم القطعة</t>
   </si>
@@ -202,6 +202,156 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (1).jpeg</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (2).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (3).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (4).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (5).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (6).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (7).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (8).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (9).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (10).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (11).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (12).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (13).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (14).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (15).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (16).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (17).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (18).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (19).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (20).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (21).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (22).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (23).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (24).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (25).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (26).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (27).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (28).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (29).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (30).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (31).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (32).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (33).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (34).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (35).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (36).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (37).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (38).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (39).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (40).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (41).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (42).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (43).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (44).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (45).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (46).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (47).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (48).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (49).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (50).jpeg</t>
   </si>
 </sst>
 </file>
@@ -254,16 +404,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -546,19 +702,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1188F317-077E-4553-9FE5-BE4349E58890}">
-  <dimension ref="A1:E222"/>
+  <dimension ref="A1:L222"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.8984375" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.09765625" customWidth="1"/>
-    <col min="3" max="3" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="6.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.09765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="4.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -591,7 +747,7 @@
       <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -606,9 +762,9 @@
         <v>1000</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -623,9 +779,9 @@
         <v>500</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -640,9 +796,9 @@
         <v>500</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -657,9 +813,9 @@
         <v>1500</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -674,9 +830,9 @@
         <v>800</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -691,9 +847,9 @@
         <v>1600</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -708,9 +864,9 @@
         <v>900</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -725,9 +881,9 @@
         <v>2500</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -742,9 +898,9 @@
         <v>2500</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -759,9 +915,9 @@
         <v>1200</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -776,9 +932,9 @@
         <v>1000</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -793,9 +949,9 @@
         <v>700</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -810,9 +966,9 @@
         <v>500</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -827,9 +983,9 @@
         <v>1000</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -844,9 +1000,9 @@
         <v>1200</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -861,9 +1017,9 @@
         <v>400</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -878,9 +1034,9 @@
         <v>1400</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -895,9 +1051,9 @@
         <v>750</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -912,9 +1068,9 @@
         <v>1400</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -929,9 +1085,9 @@
         <v>600</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -946,9 +1102,9 @@
         <v>700</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -963,9 +1119,9 @@
         <v>2500</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -980,9 +1136,9 @@
         <v>500</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -997,9 +1153,9 @@
         <v>1000</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1014,9 +1170,9 @@
         <v>1000</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1031,9 +1187,9 @@
         <v>600</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1047,10 +1203,10 @@
       <c r="C29" s="2">
         <v>1200</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1065,9 +1221,9 @@
         <v>3000</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1082,9 +1238,9 @@
         <v>850</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1099,9 +1255,9 @@
         <v>800</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1116,9 +1272,9 @@
         <v>750</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1133,9 +1289,9 @@
         <v>1800</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1150,9 +1306,9 @@
         <v>400</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1167,9 +1323,9 @@
         <v>900</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1184,9 +1340,9 @@
         <v>1200</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1201,9 +1357,9 @@
         <v>900</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1218,9 +1374,9 @@
         <v>1000</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1235,9 +1391,9 @@
         <v>1000</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1252,9 +1408,9 @@
         <v>900</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1269,9 +1425,9 @@
         <v>2500</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1286,9 +1442,9 @@
         <v>2400</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1303,9 +1459,9 @@
         <v>900</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1320,9 +1476,9 @@
         <v>1500</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1337,9 +1493,9 @@
         <v>1000</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1354,9 +1510,9 @@
         <v>850</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1371,9 +1527,9 @@
         <v>1200</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1388,9 +1544,9 @@
         <v>1000</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1405,9 +1561,9 @@
         <v>11</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1422,9 +1578,9 @@
         <v>11</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1438,7 +1594,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -2456,9 +2612,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{5B80A76D-9EEA-4887-8F2E-98156BA68207}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{FF21874E-6DB2-425C-8F21-6BAA0A3B9F58}"/>
-    <hyperlink ref="D4:D51" r:id="rId3" display="https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (1).jpeg" xr:uid="{F93ED466-BCFC-4FDD-935A-D5FB2830D96B}"/>
+    <hyperlink ref="D29" r:id="rId1" xr:uid="{31C2CDC4-4412-4BC3-839C-879F7C64F439}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC4DCB6-E3B2-4A0C-AC65-B9E38BC7A5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E8FDFD-62D0-42C8-9006-3BCA93A0D47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
   <si>
     <t>رقم القطعة</t>
   </si>
@@ -204,12 +204,6 @@
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (1).jpeg</t>
   </si>
   <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (2).jpeg</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (3).jpeg</t>
   </si>
   <si>
@@ -352,6 +346,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (50).jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/(2).jpeg</t>
   </si>
 </sst>
 </file>
@@ -702,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1188F317-077E-4553-9FE5-BE4349E58890}">
-  <dimension ref="A1:L222"/>
+  <dimension ref="A1:E222"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.8984375" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -761,8 +758,8 @@
       <c r="C3" s="2">
         <v>1000</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>57</v>
+      <c r="D3" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>54</v>
@@ -779,7 +776,7 @@
         <v>500</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>54</v>
@@ -796,7 +793,7 @@
         <v>500</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
@@ -813,7 +810,7 @@
         <v>1500</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>54</v>
@@ -830,7 +827,7 @@
         <v>800</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>54</v>
@@ -847,7 +844,7 @@
         <v>1600</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>54</v>
@@ -864,7 +861,7 @@
         <v>900</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>54</v>
@@ -881,7 +878,7 @@
         <v>2500</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>54</v>
@@ -898,7 +895,7 @@
         <v>2500</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>54</v>
@@ -915,7 +912,7 @@
         <v>1200</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>54</v>
@@ -932,7 +929,7 @@
         <v>1000</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>54</v>
@@ -949,7 +946,7 @@
         <v>700</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>54</v>
@@ -966,7 +963,7 @@
         <v>500</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>54</v>
@@ -983,7 +980,7 @@
         <v>1000</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>54</v>
@@ -1000,7 +997,7 @@
         <v>1200</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>54</v>
@@ -1017,7 +1014,7 @@
         <v>400</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>54</v>
@@ -1034,7 +1031,7 @@
         <v>1400</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>54</v>
@@ -1051,7 +1048,7 @@
         <v>750</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>54</v>
@@ -1068,7 +1065,7 @@
         <v>1400</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>54</v>
@@ -1085,7 +1082,7 @@
         <v>600</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>54</v>
@@ -1102,7 +1099,7 @@
         <v>700</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>54</v>
@@ -1119,7 +1116,7 @@
         <v>2500</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>54</v>
@@ -1136,7 +1133,7 @@
         <v>500</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>54</v>
@@ -1153,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>54</v>
@@ -1170,7 +1167,7 @@
         <v>1000</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>54</v>
@@ -1187,7 +1184,7 @@
         <v>600</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>54</v>
@@ -1204,7 +1201,7 @@
         <v>1200</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>54</v>
@@ -1221,7 +1218,7 @@
         <v>3000</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>54</v>
@@ -1238,7 +1235,7 @@
         <v>850</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>54</v>
@@ -1255,7 +1252,7 @@
         <v>800</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>54</v>
@@ -1272,7 +1269,7 @@
         <v>750</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>54</v>
@@ -1289,7 +1286,7 @@
         <v>1800</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>54</v>
@@ -1306,7 +1303,7 @@
         <v>400</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>54</v>
@@ -1323,7 +1320,7 @@
         <v>900</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>54</v>
@@ -1340,7 +1337,7 @@
         <v>1200</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>54</v>
@@ -1357,7 +1354,7 @@
         <v>900</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>54</v>
@@ -1374,7 +1371,7 @@
         <v>1000</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>54</v>
@@ -1391,7 +1388,7 @@
         <v>1000</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>54</v>
@@ -1408,7 +1405,7 @@
         <v>900</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>54</v>
@@ -1425,7 +1422,7 @@
         <v>2500</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>54</v>
@@ -1442,7 +1439,7 @@
         <v>2400</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>54</v>
@@ -1459,7 +1456,7 @@
         <v>900</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>54</v>
@@ -1476,7 +1473,7 @@
         <v>1500</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>54</v>
@@ -1493,7 +1490,7 @@
         <v>1000</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>54</v>
@@ -1510,7 +1507,7 @@
         <v>850</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>54</v>
@@ -1527,7 +1524,7 @@
         <v>1200</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>54</v>
@@ -1544,7 +1541,7 @@
         <v>1000</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>54</v>
@@ -1561,7 +1558,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>54</v>
@@ -1578,7 +1575,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>54</v>
@@ -2613,6 +2610,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D29" r:id="rId1" xr:uid="{31C2CDC4-4412-4BC3-839C-879F7C64F439}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{57F2C60D-F499-4835-BEF7-3A6C6C25A252}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/index.xlsx
+++ b/index.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E8FDFD-62D0-42C8-9006-3BCA93A0D47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC73D0BF-73C3-48CD-9FDA-80EB17D8B15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="120">
   <si>
     <t>رقم القطعة</t>
   </si>
@@ -192,18 +192,66 @@
     <t xml:space="preserve">وصف القطعة </t>
   </si>
   <si>
-    <t>التصنيف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مزهرية </t>
+    <t>الصنف</t>
+  </si>
+  <si>
+    <t>قرعات</t>
   </si>
   <si>
     <t>صحون</t>
   </si>
   <si>
+    <t>قرافيات</t>
+  </si>
+  <si>
+    <t>فازات</t>
+  </si>
+  <si>
+    <t>مزهريات</t>
+  </si>
+  <si>
+    <t>بومبونيرات</t>
+  </si>
+  <si>
+    <t>صيرمات</t>
+  </si>
+  <si>
+    <t>لوحات</t>
+  </si>
+  <si>
+    <t>مجسمات</t>
+  </si>
+  <si>
+    <t>صناديق</t>
+  </si>
+  <si>
+    <t>بوتات</t>
+  </si>
+  <si>
+    <t>أراجيل</t>
+  </si>
+  <si>
+    <t>مصاطر</t>
+  </si>
+  <si>
+    <t>اباريق</t>
+  </si>
+  <si>
+    <t>طقومة</t>
+  </si>
+  <si>
+    <t>شمعدانيات</t>
+  </si>
+  <si>
+    <t>ستيبات</t>
+  </si>
+  <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (1).jpeg</t>
   </si>
   <si>
+    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/(2).jpeg</t>
+  </si>
+  <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (3).jpeg</t>
   </si>
   <si>
@@ -346,9 +394,6 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (50).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/(2).jpeg</t>
   </si>
 </sst>
 </file>
@@ -380,12 +425,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -401,12 +452,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -414,6 +468,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -701,33 +758,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1188F317-077E-4553-9FE5-BE4349E58890}">
   <dimension ref="A1:E222"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.8984375" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.09765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="4.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.296875" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" customWidth="1"/>
+    <col min="4" max="4" width="68" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -741,11 +798,11 @@
       <c r="C2" s="2">
         <v>1400</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>53</v>
+      <c r="D2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -758,11 +815,11 @@
       <c r="C3" s="2">
         <v>1000</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>54</v>
+      <c r="D3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -775,10 +832,10 @@
       <c r="C4" s="2">
         <v>500</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -792,10 +849,10 @@
       <c r="C5" s="2">
         <v>500</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -809,11 +866,11 @@
       <c r="C6" s="2">
         <v>1500</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>54</v>
+      <c r="D6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -826,11 +883,11 @@
       <c r="C7" s="2">
         <v>800</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>54</v>
+      <c r="D7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -843,11 +900,11 @@
       <c r="C8" s="2">
         <v>1600</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>54</v>
+      <c r="D8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -860,11 +917,11 @@
       <c r="C9" s="2">
         <v>900</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>54</v>
+      <c r="D9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -877,11 +934,11 @@
       <c r="C10" s="2">
         <v>2500</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>54</v>
+      <c r="D10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -894,11 +951,11 @@
       <c r="C11" s="2">
         <v>2500</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -911,11 +968,11 @@
       <c r="C12" s="2">
         <v>1200</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>54</v>
+      <c r="D12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -928,11 +985,11 @@
       <c r="C13" s="2">
         <v>1000</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>54</v>
+      <c r="D13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -945,11 +1002,11 @@
       <c r="C14" s="2">
         <v>700</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>54</v>
+      <c r="D14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -962,11 +1019,11 @@
       <c r="C15" s="2">
         <v>500</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>54</v>
+      <c r="D15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -979,11 +1036,11 @@
       <c r="C16" s="2">
         <v>1000</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>54</v>
+      <c r="D16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -996,11 +1053,11 @@
       <c r="C17" s="2">
         <v>1200</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>54</v>
+      <c r="D17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1013,10 +1070,10 @@
       <c r="C18" s="2">
         <v>400</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1030,11 +1087,11 @@
       <c r="C19" s="2">
         <v>1400</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>54</v>
+      <c r="D19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1047,11 +1104,11 @@
       <c r="C20" s="2">
         <v>750</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>54</v>
+      <c r="D20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1064,11 +1121,11 @@
       <c r="C21" s="2">
         <v>1400</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>54</v>
+      <c r="D21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1081,11 +1138,11 @@
       <c r="C22" s="2">
         <v>600</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>54</v>
+      <c r="D22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1098,11 +1155,11 @@
       <c r="C23" s="2">
         <v>700</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>54</v>
+      <c r="D23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1115,11 +1172,11 @@
       <c r="C24" s="2">
         <v>2500</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>54</v>
+      <c r="D24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1132,10 +1189,10 @@
       <c r="C25" s="2">
         <v>500</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1149,11 +1206,11 @@
       <c r="C26" s="2">
         <v>1000</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>54</v>
+      <c r="D26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1166,11 +1223,11 @@
       <c r="C27" s="2">
         <v>1000</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>54</v>
+      <c r="D27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1183,11 +1240,11 @@
       <c r="C28" s="2">
         <v>600</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>54</v>
+      <c r="D28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1200,11 +1257,11 @@
       <c r="C29" s="2">
         <v>1200</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>54</v>
+      <c r="D29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,11 +1274,11 @@
       <c r="C30" s="2">
         <v>3000</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>54</v>
+      <c r="D30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,11 +1291,11 @@
       <c r="C31" s="2">
         <v>850</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>54</v>
+      <c r="D31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1251,10 +1308,10 @@
       <c r="C32" s="2">
         <v>800</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1268,11 +1325,11 @@
       <c r="C33" s="2">
         <v>750</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>54</v>
+      <c r="D33" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1285,11 +1342,11 @@
       <c r="C34" s="2">
         <v>1800</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>54</v>
+      <c r="D34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,10 +1359,10 @@
       <c r="C35" s="2">
         <v>400</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1319,11 +1376,11 @@
       <c r="C36" s="2">
         <v>900</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>54</v>
+      <c r="D36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1336,11 +1393,11 @@
       <c r="C37" s="2">
         <v>1200</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>54</v>
+      <c r="D37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1353,11 +1410,11 @@
       <c r="C38" s="2">
         <v>900</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>54</v>
+      <c r="D38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1370,11 +1427,11 @@
       <c r="C39" s="2">
         <v>1000</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>54</v>
+      <c r="D39" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1387,11 +1444,11 @@
       <c r="C40" s="2">
         <v>1000</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>54</v>
+      <c r="D40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1404,11 +1461,11 @@
       <c r="C41" s="2">
         <v>900</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>54</v>
+      <c r="D41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1421,11 +1478,11 @@
       <c r="C42" s="2">
         <v>2500</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>54</v>
+      <c r="D42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1438,11 +1495,11 @@
       <c r="C43" s="2">
         <v>2400</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>54</v>
+      <c r="D43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1455,11 +1512,11 @@
       <c r="C44" s="2">
         <v>900</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>54</v>
+      <c r="D44" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1472,11 +1529,11 @@
       <c r="C45" s="2">
         <v>1500</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>54</v>
+      <c r="D45" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1489,11 +1546,11 @@
       <c r="C46" s="2">
         <v>1000</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>54</v>
+      <c r="D46" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1506,11 +1563,11 @@
       <c r="C47" s="2">
         <v>850</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>54</v>
+      <c r="D47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1523,11 +1580,11 @@
       <c r="C48" s="2">
         <v>1200</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>54</v>
+      <c r="D48" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1540,11 +1597,11 @@
       <c r="C49" s="2">
         <v>1000</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>54</v>
+      <c r="D49" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1555,13 +1612,13 @@
         <v>51</v>
       </c>
       <c r="C50" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1572,1045 +1629,1216 @@
         <v>51</v>
       </c>
       <c r="C51" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="6"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="6"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="6"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="6"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="6"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="6"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="6"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D71" s="6"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="6"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="6"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="6"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="6"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D76" s="6"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="6"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="6"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="6"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="6"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="6"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D82" s="6"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D83" s="6"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D84" s="6"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D85" s="6"/>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D86" s="6"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="6"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="6"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D89" s="6"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D90" s="6"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D91" s="6"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D92" s="6"/>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D93" s="6"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D94" s="6"/>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D95" s="6"/>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D96" s="6"/>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="6"/>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="6"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="6"/>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D100" s="6"/>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D101" s="6"/>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D102" s="6"/>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D103" s="6"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D104" s="6"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D105" s="6"/>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D106" s="6"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D107" s="6"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D108" s="6"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D109" s="6"/>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D110" s="6"/>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D111" s="6"/>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D112" s="6"/>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D113" s="6"/>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D114" s="6"/>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D115" s="6"/>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D116" s="6"/>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D117" s="6"/>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D118" s="6"/>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D119" s="6"/>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D120" s="6"/>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D121" s="6"/>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D122" s="6"/>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D123" s="6"/>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D124" s="6"/>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D125" s="6"/>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D126" s="6"/>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D127" s="6"/>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D128" s="6"/>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D129" s="6"/>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D130" s="6"/>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D131" s="6"/>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D132" s="6"/>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D133" s="6"/>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D134" s="6"/>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D135" s="6"/>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D136" s="6"/>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D137" s="6"/>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D138" s="6"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D139" s="6"/>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D140" s="6"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D141" s="6"/>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D142" s="6"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D143" s="6"/>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D144" s="6"/>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D145" s="6"/>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D146" s="6"/>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D147" s="6"/>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D148" s="6"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D149" s="6"/>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D150" s="6"/>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D151" s="6"/>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D152" s="6"/>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D153" s="6"/>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D154" s="6"/>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D155" s="6"/>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D156" s="6"/>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D157" s="6"/>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D158" s="6"/>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D159" s="6"/>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D160" s="6"/>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D161" s="6"/>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D162" s="6"/>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D163" s="6"/>
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D164" s="6"/>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D165" s="6"/>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-    </row>
-    <row r="167" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D166" s="6"/>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D167" s="6"/>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-    </row>
-    <row r="169" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D168" s="6"/>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-    </row>
-    <row r="170" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D169" s="6"/>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-    </row>
-    <row r="171" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D170" s="6"/>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-    </row>
-    <row r="172" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D171" s="6"/>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-    </row>
-    <row r="173" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D172" s="6"/>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-    </row>
-    <row r="174" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D173" s="6"/>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-    </row>
-    <row r="175" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D174" s="6"/>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-    </row>
-    <row r="176" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D175" s="6"/>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-    </row>
-    <row r="177" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D176" s="6"/>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-    </row>
-    <row r="178" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D177" s="6"/>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-    </row>
-    <row r="179" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D178" s="6"/>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-    </row>
-    <row r="180" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D179" s="6"/>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-    </row>
-    <row r="181" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D180" s="6"/>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-    </row>
-    <row r="182" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D181" s="6"/>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-    </row>
-    <row r="183" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D182" s="6"/>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-    </row>
-    <row r="184" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D183" s="6"/>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-    </row>
-    <row r="185" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D184" s="6"/>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-    </row>
-    <row r="186" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D185" s="6"/>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-    </row>
-    <row r="187" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D186" s="6"/>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-    </row>
-    <row r="188" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D187" s="6"/>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-    </row>
-    <row r="189" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D188" s="6"/>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-    </row>
-    <row r="190" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D189" s="6"/>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-    </row>
-    <row r="191" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D190" s="6"/>
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-    </row>
-    <row r="192" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D191" s="6"/>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-    </row>
-    <row r="193" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D192" s="6"/>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-    </row>
-    <row r="194" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D193" s="6"/>
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-    </row>
-    <row r="195" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D194" s="6"/>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-    </row>
-    <row r="196" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D195" s="6"/>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-    </row>
-    <row r="197" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D196" s="6"/>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-    </row>
-    <row r="198" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D197" s="6"/>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-    </row>
-    <row r="199" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D198" s="6"/>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-    </row>
-    <row r="200" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D199" s="6"/>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-    </row>
-    <row r="201" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D200" s="6"/>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-    </row>
-    <row r="202" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D201" s="6"/>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-    </row>
-    <row r="203" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D202" s="6"/>
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-    </row>
-    <row r="204" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D203" s="6"/>
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-    </row>
-    <row r="205" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D204" s="6"/>
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-    </row>
-    <row r="206" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D205" s="6"/>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-    </row>
-    <row r="207" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D206" s="6"/>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-    </row>
-    <row r="208" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D207" s="6"/>
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-    </row>
-    <row r="209" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D208" s="6"/>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-    </row>
-    <row r="210" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D209" s="6"/>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-    </row>
-    <row r="211" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D210" s="6"/>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-    </row>
-    <row r="212" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D211" s="6"/>
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-    </row>
-    <row r="213" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D212" s="6"/>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-    </row>
-    <row r="214" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D213" s="6"/>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-    </row>
-    <row r="215" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D214" s="6"/>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-    </row>
-    <row r="216" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D215" s="6"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-    </row>
-    <row r="217" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D216" s="6"/>
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-    </row>
-    <row r="218" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D217" s="6"/>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-    </row>
-    <row r="219" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D218" s="6"/>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-    </row>
-    <row r="220" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D219" s="6"/>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-    </row>
-    <row r="221" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D220" s="6"/>
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-    </row>
-    <row r="222" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D221" s="6"/>
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D29" r:id="rId1" xr:uid="{31C2CDC4-4412-4BC3-839C-879F7C64F439}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{57F2C60D-F499-4835-BEF7-3A6C6C25A252}"/>
+    <hyperlink ref="D29" r:id="rId1" xr:uid="{ACBE40FC-A5F7-439C-965A-87620259C018}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{ECE6F613-8127-4ED1-A222-0E344A4550B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/index.xlsx
+++ b/index.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC73D0BF-73C3-48CD-9FDA-80EB17D8B15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C044D2B3-991D-4D91-A268-24F2E58CCE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10572" yWindow="2664" windowWidth="11136" windowHeight="7188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="223">
   <si>
     <t>رقم القطعة</t>
   </si>
@@ -48,21 +48,6 @@
     <t>مسار الصورة</t>
   </si>
   <si>
-    <t>مزهرية بوهيمي موزارت / 2</t>
-  </si>
-  <si>
-    <t>قرعات بوهيمي احمر / 2</t>
-  </si>
-  <si>
-    <t>صحن بورسلان روسي جاردنر / 1</t>
-  </si>
-  <si>
-    <t>صحون بورسلان ليموج / 2</t>
-  </si>
-  <si>
-    <t>بوت اناناس لاستر احمر بوهيمي/ 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ستيب بوت طبقتين ابيض احمر </t>
   </si>
   <si>
@@ -189,9 +174,6 @@
     <t>صرما عثماني لون اخضر</t>
   </si>
   <si>
-    <t xml:space="preserve">وصف القطعة </t>
-  </si>
-  <si>
     <t>الصنف</t>
   </si>
   <si>
@@ -246,154 +228,481 @@
     <t>ستيبات</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (1).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/(2).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (3).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (4).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (5).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (6).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (7).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (8).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (9).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (10).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (11).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (12).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (13).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (14).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (15).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (16).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (17).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (18).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (19).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (20).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (21).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (22).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (23).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (24).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (25).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (26).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (27).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (28).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (29).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (30).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (31).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (32).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (33).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (34).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (35).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (36).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (37).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (38).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (39).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (40).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (41).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (42).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (43).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (44).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (45).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (46).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (47).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (48).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (49).jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (50).jpeg</t>
+    <t>مزهرية بوهيمي موزارت \ 2</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(1).jpeg</t>
+  </si>
+  <si>
+    <t>قرعات بوهيمي احمر \ 2</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(2).jpeg</t>
+  </si>
+  <si>
+    <t>صحن بورسلان روسي جاردنر \ 1</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(3).jpeg</t>
+  </si>
+  <si>
+    <t>صحون بورسلان ليموج \ 2</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(4).jpeg</t>
+  </si>
+  <si>
+    <t>بوت اناناس لاستر احمر بوهيمي\ 2</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(5).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(6).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(7).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(8).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(9).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(10).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(11).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(12).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(13).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(14).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(15).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(16).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(17).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(18).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(19).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(20).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(21).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(22).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(23).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(24).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(25).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(26).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(27).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(28).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(29).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(30).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(31).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(32).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(33).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(34).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(35).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(36).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(37).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(38).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(39).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(40).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(41).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(42).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(43).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(44).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(45).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(46).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(47).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(48).jpeg</t>
+  </si>
+  <si>
+    <t>جوز قرافيات بوهيمي احمر / 2</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(49).jpeg</t>
+  </si>
+  <si>
+    <t>جوز مرشات بوهيمي احمر /2</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(50).jpeg</t>
+  </si>
+  <si>
+    <t>عقد مغربي برواز قديم وسط خيط اسود</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(51).jpeg</t>
+  </si>
+  <si>
+    <t>عقد مغربي برواز قديم وسط خيط ازرق</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(52).jpeg</t>
+  </si>
+  <si>
+    <t>فازا إيراني بورسلان فخار مقلز ازرق</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(53).jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جوز صحون مايسون فرنسي ازرق و اخضر مصور </t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(54).jpeg</t>
+  </si>
+  <si>
+    <t>فازا بوهيمي شفاف مزخرف</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(55).jpeg</t>
+  </si>
+  <si>
+    <t>قنصل سوري خشب 5 ادراج</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(56).jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صرما عثماني خمري حجم كبير </t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(57).jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جوز قرافيات لون كحلي حجم كبير </t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(58).jpeg</t>
+  </si>
+  <si>
+    <t>جوز فوانيس ازرق فرنسي</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(59).jpeg</t>
+  </si>
+  <si>
+    <t>دوز فوانيس ازرق بوهيمي</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(60).jpeg</t>
+  </si>
+  <si>
+    <t>فانوس بوهيمي تركواز كبير</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(61).jpeg</t>
+  </si>
+  <si>
+    <t>جوز بوول ستيب بوس تشيكي ازرق و ابيض</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(62).jpeg</t>
+  </si>
+  <si>
+    <t>كاس قاعدة شفاف لون ازرق إيطالي</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(63).jpeg</t>
+  </si>
+  <si>
+    <t>قنصل مع مراه صدف بحري مشدر سوري</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(64).jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جوز اوبالين مصور مورد بيج راسية بني </t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(65).jpeg</t>
+  </si>
+  <si>
+    <t>جوز اوبالين مصور فرنسي</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(66).jpeg</t>
+  </si>
+  <si>
+    <t>جوز اوبالين مصور ورد حجم وسط ابيض و اصفر</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(67).jpeg</t>
+  </si>
+  <si>
+    <t>فردة اوبالين لون اخضر فازة</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(68).jpeg</t>
+  </si>
+  <si>
+    <t>جوز اوبالين ابيض زهر مذهب و اخضر</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(69).jpeg</t>
+  </si>
+  <si>
+    <t>جوز اوبالين لون اصفر مورد</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(70).jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جوز اوبالين عنابي حجم كبير مصور </t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(71).jpeg</t>
+  </si>
+  <si>
+    <t>فازة اوبالين حجم كبير كصور و موقع</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(72).jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خزانة 3 أبواب مشغل سوري عربي زمن العقد العثماني صدف بحري العمر 120 سنة </t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(73).jpeg</t>
+  </si>
+  <si>
+    <t>برواز لوبان مغربي احجار مختلفة الأنواع كبير</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(74).jpeg</t>
+  </si>
+  <si>
+    <t>برواز لوبان مغربي احجار مختلفة الأنواع صغير</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(75).jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شمعدان انياب اسد البحر مع فضة </t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(76).jpeg</t>
+  </si>
+  <si>
+    <t>علبة فرنسي بوهيمي  احمر مع مسكة فيل فضة</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(77).jpeg</t>
+  </si>
+  <si>
+    <t>جوز قرافيات لون ليموني</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(78).jpeg</t>
+  </si>
+  <si>
+    <t>جوز اوبالين اخضر و اسود</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(79).jpeg</t>
+  </si>
+  <si>
+    <t>طقم 3 قطع جوز بارفاتان مع صحن</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(80).jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علبة بوهيمي اخضر مذهب </t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(81).jpeg</t>
+  </si>
+  <si>
+    <t>جوز كحلي فازات شرقي</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(82).jpeg</t>
+  </si>
+  <si>
+    <t>كأس اوبالين لون ابيض شفاف</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(83).jpeg</t>
+  </si>
+  <si>
+    <t>علبة كحلي فرنسي مصور مع برونز</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(84).jpeg</t>
+  </si>
+  <si>
+    <t>جوز بيض ليموج فرنسي لون كحلي مع برونز</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(85).jpeg</t>
+  </si>
+  <si>
+    <t>علبة كحلي ليموج فرنسي</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(86).jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طقم 3 قطع فازات شحم بلحم </t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(87).jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارجيلة شحم بلحم اوبالين </t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(88).jpeg</t>
+  </si>
+  <si>
+    <t>خزانة بابين صدف سوري قديم</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(89).jpeg</t>
+  </si>
+  <si>
+    <t>جوز كراسي هندي بالعضم مهراجا</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(90).jpeg</t>
+  </si>
+  <si>
+    <t>برواز حجم صغير احجار ملونة كريستال</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(91).jpeg</t>
+  </si>
+  <si>
+    <t>مكتب مع كرسي مع وحدة ادراج صدف سوري قديم</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(92).jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سجادة إيراني صوف قديم حضرة سليمان </t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(93).jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لوحة مخطوطة ادعية </t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(94).jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لوحة اية الكرسي مصقبة </t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(95).jpeg</t>
+  </si>
+  <si>
+    <t>لوحة خط عثماني (رأس الحكمة مخافة الله) الخطاط العثماني راسان</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(96).jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طربيزة نحاس مغربي </t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(97).jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لوحة خط حميد الغاصي </t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(98).jpeg</t>
+  </si>
+  <si>
+    <t>جوز عمدان رخام إيطالي مع برونز</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(99).jpeg</t>
+  </si>
+  <si>
+    <t>جوز مجسم فرنسي برونز جمل استشراق</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(100).jpeg</t>
+  </si>
+  <si>
+    <t>مراية صدف سوري قديم حجم كبير</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\(101).jpeg</t>
   </si>
 </sst>
 </file>
@@ -758,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1188F317-077E-4553-9FE5-BE4349E58890}">
   <dimension ref="A1:E222"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51:E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.8984375" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -785,7 +1094,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -793,16 +1102,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -810,16 +1119,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -827,16 +1136,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2">
         <v>500</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -844,16 +1153,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2">
         <v>500</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -861,16 +1170,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2">
         <v>1500</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -878,16 +1187,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
         <v>800</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -895,16 +1204,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
         <v>1600</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -912,16 +1221,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2">
         <v>900</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -929,16 +1238,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
         <v>2500</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -946,16 +1255,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -963,16 +1272,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2">
-        <v>1200</v>
+        <v>1750</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -980,16 +1289,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -997,16 +1306,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1014,16 +1323,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2">
         <v>500</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1031,16 +1340,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1048,16 +1357,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
         <v>1200</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1065,16 +1374,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1082,16 +1391,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1099,16 +1408,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <v>750</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1116,16 +1425,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>1400</v>
+        <v>1750</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1133,16 +1442,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1150,16 +1459,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2">
         <v>700</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1167,16 +1476,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2">
         <v>2500</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1184,16 +1493,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
         <v>500</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1201,16 +1510,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1218,16 +1527,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1235,16 +1544,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1252,16 +1561,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1269,16 +1578,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2">
         <v>3000</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1286,16 +1595,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1303,16 +1612,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2">
         <v>800</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1320,16 +1629,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1337,16 +1646,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C34" s="2">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1354,16 +1663,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C35" s="2">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1371,16 +1680,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C36" s="2">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1388,16 +1697,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2">
         <v>1200</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1405,16 +1714,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2">
         <v>900</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1422,16 +1731,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C39" s="2">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1439,16 +1748,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1456,16 +1765,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1473,16 +1782,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C42" s="2">
         <v>2500</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1490,16 +1799,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2">
         <v>2400</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1507,16 +1816,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1524,16 +1833,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1541,16 +1850,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1558,16 +1867,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2">
-        <v>850</v>
+        <v>1100</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1575,16 +1884,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2">
         <v>1200</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1592,16 +1901,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1609,16 +1918,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="C50" s="2">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1626,374 +1935,884 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="2">
+        <v>400</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="C51" s="2">
-        <v>1</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="B52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="2">
+        <v>950</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="2">
+        <v>600</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="2">
+        <v>400</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="2">
+        <v>4500</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="2"/>
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="2">
+        <v>900</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="2"/>
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="2"/>
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="2">
+        <v>600</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4500</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="2">
+        <v>850</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="67" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="2"/>
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="2">
+        <v>900</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="2"/>
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="2">
+        <v>300</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="70" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1800</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1600</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="2"/>
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="74" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="2"/>
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="2">
+        <v>12500</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="75" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="2"/>
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="2">
+        <v>800</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77" s="2">
+        <v>750</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="78" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" s="2">
+        <v>750</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="2"/>
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1750</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="81" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="2"/>
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1400</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="82" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="2"/>
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C82" s="2">
+        <v>350</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="83" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="2"/>
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83" s="2">
+        <v>750</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="2"/>
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" s="2">
+        <v>600</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="85" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" s="2">
+        <v>600</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="86" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="2"/>
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="87" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="2"/>
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="2">
+        <v>300</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="88" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="2"/>
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1700</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="89" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="2"/>
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" s="2">
+        <v>500</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="90" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="2"/>
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" s="2">
+        <v>2750</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="91" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="2"/>
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" s="2">
+        <v>3750</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="92" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="2"/>
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" s="2">
+        <v>400</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="93" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" s="2">
+        <v>3500</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="94" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="2"/>
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="95" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="2"/>
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="96" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="2"/>
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C96" s="2">
+        <v>300</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="97" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="2"/>
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="98" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="2"/>
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98" s="2">
+        <v>750</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="99" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="2"/>
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" s="2">
+        <v>350</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="100" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="2"/>
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="101" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="2"/>
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2800</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="102" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="2"/>
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" s="2">
+        <v>3500</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="103" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
@@ -2837,8 +3656,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D29" r:id="rId1" xr:uid="{ACBE40FC-A5F7-439C-965A-87620259C018}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{ECE6F613-8127-4ED1-A222-0E344A4550B4}"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/(2).jpeg" xr:uid="{ECE6F613-8127-4ED1-A222-0E344A4550B4}"/>
+    <hyperlink ref="D29" r:id="rId2" display="https://raw.githubusercontent.com/dofreelancer19/showitems/main/images/ (28).jpeg" xr:uid="{ACBE40FC-A5F7-439C-965A-87620259C018}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelaziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C044D2B3-991D-4D91-A268-24F2E58CCE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC088FCE-B3DB-49EE-92DC-6B5E4F7800AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10572" yWindow="2664" windowWidth="11136" windowHeight="7188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="2" r:id="rId1"/>
@@ -231,478 +231,478 @@
     <t>مزهرية بوهيمي موزارت \ 2</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(1).jpeg</t>
-  </si>
-  <si>
     <t>قرعات بوهيمي احمر \ 2</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(2).jpeg</t>
-  </si>
-  <si>
     <t>صحن بورسلان روسي جاردنر \ 1</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(3).jpeg</t>
-  </si>
-  <si>
     <t>صحون بورسلان ليموج \ 2</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(4).jpeg</t>
-  </si>
-  <si>
     <t>بوت اناناس لاستر احمر بوهيمي\ 2</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(5).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(6).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(7).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(8).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(9).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(10).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(11).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(12).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(13).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(14).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(15).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(16).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(17).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(18).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(19).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(20).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(21).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(22).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(23).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(24).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(25).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(26).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(27).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(28).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(29).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(30).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(31).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(32).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(33).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(34).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(35).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(36).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(37).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(38).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(39).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(40).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(41).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(42).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(43).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(44).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(45).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(46).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(47).jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(48).jpeg</t>
-  </si>
-  <si>
     <t>جوز قرافيات بوهيمي احمر / 2</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(49).jpeg</t>
-  </si>
-  <si>
     <t>جوز مرشات بوهيمي احمر /2</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(50).jpeg</t>
-  </si>
-  <si>
     <t>عقد مغربي برواز قديم وسط خيط اسود</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(51).jpeg</t>
-  </si>
-  <si>
     <t>عقد مغربي برواز قديم وسط خيط ازرق</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(52).jpeg</t>
-  </si>
-  <si>
     <t>فازا إيراني بورسلان فخار مقلز ازرق</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(53).jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">جوز صحون مايسون فرنسي ازرق و اخضر مصور </t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(54).jpeg</t>
-  </si>
-  <si>
     <t>فازا بوهيمي شفاف مزخرف</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(55).jpeg</t>
-  </si>
-  <si>
     <t>قنصل سوري خشب 5 ادراج</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(56).jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">صرما عثماني خمري حجم كبير </t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(57).jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">جوز قرافيات لون كحلي حجم كبير </t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(58).jpeg</t>
-  </si>
-  <si>
     <t>جوز فوانيس ازرق فرنسي</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(59).jpeg</t>
-  </si>
-  <si>
     <t>دوز فوانيس ازرق بوهيمي</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(60).jpeg</t>
-  </si>
-  <si>
     <t>فانوس بوهيمي تركواز كبير</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(61).jpeg</t>
-  </si>
-  <si>
     <t>جوز بوول ستيب بوس تشيكي ازرق و ابيض</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(62).jpeg</t>
-  </si>
-  <si>
     <t>كاس قاعدة شفاف لون ازرق إيطالي</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(63).jpeg</t>
-  </si>
-  <si>
     <t>قنصل مع مراه صدف بحري مشدر سوري</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(64).jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">جوز اوبالين مصور مورد بيج راسية بني </t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(65).jpeg</t>
-  </si>
-  <si>
     <t>جوز اوبالين مصور فرنسي</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(66).jpeg</t>
-  </si>
-  <si>
     <t>جوز اوبالين مصور ورد حجم وسط ابيض و اصفر</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(67).jpeg</t>
-  </si>
-  <si>
     <t>فردة اوبالين لون اخضر فازة</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(68).jpeg</t>
-  </si>
-  <si>
     <t>جوز اوبالين ابيض زهر مذهب و اخضر</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(69).jpeg</t>
-  </si>
-  <si>
     <t>جوز اوبالين لون اصفر مورد</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(70).jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">جوز اوبالين عنابي حجم كبير مصور </t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(71).jpeg</t>
-  </si>
-  <si>
     <t>فازة اوبالين حجم كبير كصور و موقع</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(72).jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">خزانة 3 أبواب مشغل سوري عربي زمن العقد العثماني صدف بحري العمر 120 سنة </t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(73).jpeg</t>
-  </si>
-  <si>
     <t>برواز لوبان مغربي احجار مختلفة الأنواع كبير</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(74).jpeg</t>
-  </si>
-  <si>
     <t>برواز لوبان مغربي احجار مختلفة الأنواع صغير</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(75).jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">شمعدان انياب اسد البحر مع فضة </t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(76).jpeg</t>
-  </si>
-  <si>
     <t>علبة فرنسي بوهيمي  احمر مع مسكة فيل فضة</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(77).jpeg</t>
-  </si>
-  <si>
     <t>جوز قرافيات لون ليموني</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(78).jpeg</t>
-  </si>
-  <si>
     <t>جوز اوبالين اخضر و اسود</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(79).jpeg</t>
-  </si>
-  <si>
     <t>طقم 3 قطع جوز بارفاتان مع صحن</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(80).jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">علبة بوهيمي اخضر مذهب </t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(81).jpeg</t>
-  </si>
-  <si>
     <t>جوز كحلي فازات شرقي</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(82).jpeg</t>
-  </si>
-  <si>
     <t>كأس اوبالين لون ابيض شفاف</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(83).jpeg</t>
-  </si>
-  <si>
     <t>علبة كحلي فرنسي مصور مع برونز</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(84).jpeg</t>
-  </si>
-  <si>
     <t>جوز بيض ليموج فرنسي لون كحلي مع برونز</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(85).jpeg</t>
-  </si>
-  <si>
     <t>علبة كحلي ليموج فرنسي</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(86).jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">طقم 3 قطع فازات شحم بلحم </t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(87).jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">ارجيلة شحم بلحم اوبالين </t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(88).jpeg</t>
-  </si>
-  <si>
     <t>خزانة بابين صدف سوري قديم</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(89).jpeg</t>
-  </si>
-  <si>
     <t>جوز كراسي هندي بالعضم مهراجا</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(90).jpeg</t>
-  </si>
-  <si>
     <t>برواز حجم صغير احجار ملونة كريستال</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(91).jpeg</t>
-  </si>
-  <si>
     <t>مكتب مع كرسي مع وحدة ادراج صدف سوري قديم</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(92).jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">سجادة إيراني صوف قديم حضرة سليمان </t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(93).jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">لوحة مخطوطة ادعية </t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(94).jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">لوحة اية الكرسي مصقبة </t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(95).jpeg</t>
-  </si>
-  <si>
     <t>لوحة خط عثماني (رأس الحكمة مخافة الله) الخطاط العثماني راسان</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(96).jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">طربيزة نحاس مغربي </t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(97).jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">لوحة خط حميد الغاصي </t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(98).jpeg</t>
-  </si>
-  <si>
     <t>جوز عمدان رخام إيطالي مع برونز</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(99).jpeg</t>
-  </si>
-  <si>
     <t>جوز مجسم فرنسي برونز جمل استشراق</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(100).jpeg</t>
-  </si>
-  <si>
     <t>مراية صدف سوري قديم حجم كبير</t>
   </si>
   <si>
-    <t>C:\Users\BH HUB\Desktop\Items\images\(101).jpeg</t>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (1).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (2).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (3).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (4).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (5).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (6).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (7).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (8).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (9).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (10).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (11).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (12).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (13).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (14).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (15).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (16).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (17).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (18).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (19).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (20).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (21).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (22).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (23).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (24).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (25).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (26).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (27).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (28).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (29).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (30).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (31).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (32).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (33).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (34).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (35).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (36).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (37).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (38).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (39).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (40).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (41).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (42).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (43).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (44).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (45).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (46).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (47).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (48).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (49).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (50).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (51).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (52).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (53).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (54).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (55).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (56).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (57).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (58).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (59).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (60).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (61).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (62).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (63).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (64).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (65).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (66).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (67).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (68).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (69).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (70).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (71).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (72).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (73).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (74).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (75).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (76).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (77).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (78).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (79).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (80).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (81).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (82).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (83).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (84).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (85).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (86).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (87).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (88).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (89).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (90).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (91).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (92).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (93).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (94).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (95).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (96).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (97).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (98).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (99).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (100).jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\BH HUB\Desktop\Items\images\ (101).jpeg</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:E222"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51:E102"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.8984375" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1108,7 @@
         <v>3000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>51</v>
@@ -1119,13 +1119,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2">
         <v>1750</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>47</v>
@@ -1136,13 +1136,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2">
         <v>500</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>48</v>
@@ -1153,13 +1153,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2">
         <v>500</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>48</v>
@@ -1170,13 +1170,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2">
         <v>1500</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>57</v>
@@ -1193,7 +1193,7 @@
         <v>800</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>63</v>
@@ -1210,7 +1210,7 @@
         <v>1600</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>63</v>
@@ -1227,7 +1227,7 @@
         <v>900</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>50</v>
@@ -1244,7 +1244,7 @@
         <v>2500</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>63</v>
@@ -1261,7 +1261,7 @@
         <v>3000</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>57</v>
@@ -1278,7 +1278,7 @@
         <v>1750</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>52</v>
@@ -1295,7 +1295,7 @@
         <v>1200</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>53</v>
@@ -1312,7 +1312,7 @@
         <v>1250</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>54</v>
@@ -1329,7 +1329,7 @@
         <v>500</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>54</v>
@@ -1346,7 +1346,7 @@
         <v>1500</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>55</v>
@@ -1363,7 +1363,7 @@
         <v>1200</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>49</v>
@@ -1380,7 +1380,7 @@
         <v>1000</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -1397,7 +1397,7 @@
         <v>2000</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>56</v>
@@ -1414,7 +1414,7 @@
         <v>750</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>50</v>
@@ -1431,7 +1431,7 @@
         <v>1750</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>57</v>
@@ -1448,7 +1448,7 @@
         <v>1400</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>51</v>
@@ -1465,7 +1465,7 @@
         <v>700</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>51</v>
@@ -1482,7 +1482,7 @@
         <v>2500</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
@@ -1499,7 +1499,7 @@
         <v>500</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>48</v>
@@ -1516,7 +1516,7 @@
         <v>1500</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>58</v>
@@ -1533,7 +1533,7 @@
         <v>1500</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>58</v>
@@ -1550,7 +1550,7 @@
         <v>1200</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>51</v>
@@ -1567,7 +1567,7 @@
         <v>2500</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>47</v>
@@ -1584,7 +1584,7 @@
         <v>3000</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>57</v>
@@ -1601,7 +1601,7 @@
         <v>1200</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>59</v>
@@ -1618,7 +1618,7 @@
         <v>800</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>48</v>
@@ -1635,7 +1635,7 @@
         <v>1200</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>53</v>
@@ -1652,7 +1652,7 @@
         <v>3000</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>60</v>
@@ -1669,7 +1669,7 @@
         <v>700</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>48</v>
@@ -1686,7 +1686,7 @@
         <v>1000</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>56</v>
@@ -1703,7 +1703,7 @@
         <v>1200</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>51</v>
@@ -1720,7 +1720,7 @@
         <v>900</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>51</v>
@@ -1737,7 +1737,7 @@
         <v>1500</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>58</v>
@@ -1754,7 +1754,7 @@
         <v>1500</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>58</v>
@@ -1771,7 +1771,7 @@
         <v>1200</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>56</v>
@@ -1788,7 +1788,7 @@
         <v>2500</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>57</v>
@@ -1805,7 +1805,7 @@
         <v>2400</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>61</v>
@@ -1822,7 +1822,7 @@
         <v>1200</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>62</v>
@@ -1839,7 +1839,7 @@
         <v>2000</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>50</v>
@@ -1856,7 +1856,7 @@
         <v>1200</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>51</v>
@@ -1873,7 +1873,7 @@
         <v>1100</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>51</v>
@@ -1890,7 +1890,7 @@
         <v>1200</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>57</v>
@@ -1907,7 +1907,7 @@
         <v>1200</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>53</v>
@@ -1918,13 +1918,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2">
         <v>2000</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>53</v>
@@ -1935,13 +1935,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2">
         <v>400</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>53</v>
@@ -1952,13 +1952,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2">
         <v>1200</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>53</v>
@@ -1969,13 +1969,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2">
         <v>1200</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>53</v>
@@ -1986,13 +1986,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2">
         <v>950</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>53</v>
@@ -2003,13 +2003,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="C55" s="2">
         <v>4000</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>53</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2">
         <v>600</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>53</v>
@@ -2037,13 +2037,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2">
         <v>400</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>53</v>
@@ -2054,13 +2054,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2">
         <v>4000</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>53</v>
@@ -2071,13 +2071,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2">
         <v>3000</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>53</v>
@@ -2088,13 +2088,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2">
         <v>4500</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>53</v>
@@ -2105,13 +2105,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2">
         <v>900</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>53</v>
@@ -2122,13 +2122,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2">
         <v>1200</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>53</v>
@@ -2139,13 +2139,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2">
         <v>1200</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>53</v>
@@ -2156,13 +2156,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2">
         <v>600</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>53</v>
@@ -2173,13 +2173,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2">
         <v>4500</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>53</v>
@@ -2190,13 +2190,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2">
         <v>850</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>53</v>
@@ -2207,13 +2207,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2">
         <v>1200</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>53</v>
@@ -2224,13 +2224,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2">
         <v>900</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>53</v>
@@ -2241,13 +2241,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2">
         <v>300</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>53</v>
@@ -2258,13 +2258,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2">
         <v>1800</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>53</v>
@@ -2275,13 +2275,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2">
         <v>1200</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>53</v>
@@ -2292,13 +2292,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2">
         <v>1600</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>53</v>
@@ -2309,13 +2309,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2">
         <v>2500</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>53</v>
@@ -2326,13 +2326,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2">
         <v>12500</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>53</v>
@@ -2343,13 +2343,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2">
         <v>1300</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>53</v>
@@ -2360,13 +2360,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2">
         <v>800</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>53</v>
@@ -2377,13 +2377,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="C77" s="2">
         <v>750</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>53</v>
@@ -2394,13 +2394,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="C78" s="2">
         <v>750</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>53</v>
@@ -2411,13 +2411,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="C79" s="2">
         <v>2500</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>53</v>
@@ -2428,13 +2428,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2">
         <v>1750</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>53</v>
@@ -2445,13 +2445,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="C81" s="2">
         <v>1400</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>53</v>
@@ -2462,13 +2462,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2">
         <v>350</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>53</v>
@@ -2479,13 +2479,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="C83" s="2">
         <v>750</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>53</v>
@@ -2496,13 +2496,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="C84" s="2">
         <v>600</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>53</v>
@@ -2513,13 +2513,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="C85" s="2">
         <v>600</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>53</v>
@@ -2530,13 +2530,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="C86" s="2">
         <v>1200</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>53</v>
@@ -2547,13 +2547,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="C87" s="2">
         <v>300</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>53</v>
@@ -2564,13 +2564,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2">
         <v>1700</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>53</v>
@@ -2581,13 +2581,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="C89" s="2">
         <v>500</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>53</v>
@@ -2598,13 +2598,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="C90" s="2">
         <v>2750</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>53</v>
@@ -2615,13 +2615,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c r="C91" s="2">
         <v>3750</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>53</v>
@@ -2632,13 +2632,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="C92" s="2">
         <v>400</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>53</v>
@@ -2649,13 +2649,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="C93" s="2">
         <v>3500</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>53</v>
@@ -2666,13 +2666,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="C94" s="2">
         <v>20000</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>53</v>
@@ -2683,13 +2683,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="C95" s="2">
         <v>2500</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>53</v>
@@ -2700,13 +2700,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="C96" s="2">
         <v>300</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>53</v>
@@ -2717,13 +2717,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>211</v>
+        <v>116</v>
       </c>
       <c r="C97" s="2">
         <v>3000</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>53</v>
@@ -2734,13 +2734,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="C98" s="2">
         <v>750</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>53</v>
@@ -2751,13 +2751,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="C99" s="2">
         <v>350</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>53</v>
@@ -2768,13 +2768,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="C100" s="2">
         <v>4000</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>53</v>
@@ -2785,13 +2785,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="C101" s="2">
         <v>2800</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>53</v>
@@ -2802,7 +2802,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="C102" s="2">
         <v>3500</v>
